--- a/spliced/falling/2023-03-21_15-34-51/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-51/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2064724564552307</v>
+        <v>-0.2335032373666763</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6855435371398926</v>
+        <v>-0.1345430761575698</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0025961773935705</v>
+        <v>0.1078177168965339</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.5294674634933472</v>
+        <v>0.2064724564552307</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.286787629127502</v>
+        <v>0.6855435371398926</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7295258045196533</v>
+        <v>-0.0025961773935705</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2220495194196701</v>
+        <v>-0.5294674634933472</v>
       </c>
       <c r="B4" t="n">
-        <v>1.673159956932068</v>
+        <v>-1.286787629127502</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2864958047866821</v>
+        <v>0.7295258045196533</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.537395119667053</v>
+        <v>-0.2220495194196701</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1259909570217132</v>
+        <v>1.673159956932068</v>
       </c>
       <c r="C5" t="n">
-        <v>1.005178809165955</v>
+        <v>-0.2864958047866821</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.060462117195129</v>
+        <v>1.537395119667053</v>
       </c>
       <c r="B6" t="n">
-        <v>2.47568416595459</v>
+        <v>0.1259909570217132</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4978551864624023</v>
+        <v>1.005178809165955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0458148941397666</v>
+        <v>1.060462117195129</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0255036242306232</v>
+        <v>2.47568416595459</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2715296149253845</v>
+        <v>-0.4978551864624023</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.928959727287292</v>
+        <v>0.0458148941397666</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.550820589065552</v>
+        <v>-0.0255036242306232</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1204931661486625</v>
+        <v>0.2715296149253845</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.414597511291504</v>
+        <v>1.928959727287292</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.663803577423096</v>
+        <v>-2.550820589065552</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4114177525043487</v>
+        <v>0.1204931661486625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.17408299446106</v>
+        <v>-2.414597511291504</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.489275932312012</v>
+        <v>-4.663803577423096</v>
       </c>
       <c r="C10" t="n">
-        <v>2.557387351989746</v>
+        <v>-0.4114177525043487</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7553348541259766</v>
+        <v>-1.17408299446106</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4101960062980652</v>
+        <v>-2.489275932312012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0250454749912023</v>
+        <v>2.557387351989746</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.3065016269683838</v>
+        <v>0.7553348541259766</v>
       </c>
       <c r="B12" t="n">
-        <v>1.078024387359619</v>
+        <v>-0.4101960062980652</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3802636265754699</v>
+        <v>0.0250454749912023</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4914411008358001</v>
+        <v>-0.3065016269683838</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9477574229240416</v>
+        <v>1.078024387359619</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8666650652885437</v>
+        <v>-0.3802636265754699</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.012648344039917</v>
+        <v>-0.4914411008358001</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2553416788578033</v>
+        <v>0.9477574229240416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6989825367927551</v>
+        <v>-0.8666650652885437</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.6099489331245422</v>
+        <v>-2.012648344039917</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1099557429552078</v>
+        <v>-0.2553416788578033</v>
       </c>
       <c r="C15" t="n">
-        <v>1.45645546913147</v>
+        <v>0.6989825367927551</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.4775438904762268</v>
+        <v>-0.6099489331245422</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0181732401251792</v>
+        <v>0.1099557429552078</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7333437204360962</v>
+        <v>1.45645546913147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.157145082950592</v>
+        <v>-0.4775438904762268</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.3301726579666137</v>
+        <v>0.0181732401251792</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2449569702148437</v>
+        <v>0.7333437204360962</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2209804952144622</v>
+        <v>0.157145082950592</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2324342280626297</v>
+        <v>-0.3301726579666137</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.090408056974411</v>
+        <v>-0.2449569702148437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1496619880199432</v>
+        <v>0.2209804952144622</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0774271711707115</v>
+        <v>-0.2324342280626297</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1209513172507286</v>
+        <v>-0.090408056974411</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1823432743549347</v>
+        <v>0.1496619880199432</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1472185254096985</v>
+        <v>-0.0774271711707115</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3480404615402221</v>
+        <v>0.1209513172507286</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5630650520324707</v>
+        <v>0.1823432743549347</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6291912198066711</v>
+        <v>0.1472185254096985</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.8999572396278381</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0210748501121997</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0826195254921913</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0035124751739203</v>
+        <v>-0.3480404615402221</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-51/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-51/gyroscope_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2335032373666763</v>
+        <v>-0.1186605766415596</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1345430761575698</v>
+        <v>-0.207236036658287</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1078177168965339</v>
+        <v>-0.081550508737564</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2064724564552307</v>
+        <v>-0.2335032373666763</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6855435371398926</v>
+        <v>-0.1345430761575698</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0025961773935705</v>
+        <v>0.1078177168965339</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.5294674634933472</v>
+        <v>0.2064724564552307</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.286787629127502</v>
+        <v>0.6855435371398926</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7295258045196533</v>
+        <v>-0.0025961773935705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2220495194196701</v>
+        <v>-0.5294674634933472</v>
       </c>
       <c r="B5" t="n">
-        <v>1.673159956932068</v>
+        <v>-1.286787629127502</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2864958047866821</v>
+        <v>0.7295258045196533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.537395119667053</v>
+        <v>-0.2220495194196701</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1259909570217132</v>
+        <v>1.673159956932068</v>
       </c>
       <c r="C6" t="n">
-        <v>1.005178809165955</v>
+        <v>-0.2864958047866821</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.060462117195129</v>
+        <v>1.537395119667053</v>
       </c>
       <c r="B7" t="n">
-        <v>2.47568416595459</v>
+        <v>0.1259909570217132</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4978551864624023</v>
+        <v>1.005178809165955</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0458148941397666</v>
+        <v>1.060462117195129</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0255036242306232</v>
+        <v>2.47568416595459</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2715296149253845</v>
+        <v>-0.4978551864624023</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.928959727287292</v>
+        <v>0.0458148941397666</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.550820589065552</v>
+        <v>-0.0255036242306232</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1204931661486625</v>
+        <v>0.2715296149253845</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.414597511291504</v>
+        <v>1.928959727287292</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.663803577423096</v>
+        <v>-2.550820589065552</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4114177525043487</v>
+        <v>0.1204931661486625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.17408299446106</v>
+        <v>-2.414597511291504</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.489275932312012</v>
+        <v>-4.663803577423096</v>
       </c>
       <c r="C11" t="n">
-        <v>2.557387351989746</v>
+        <v>-0.4114177525043487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7553348541259766</v>
+        <v>-1.17408299446106</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.4101960062980652</v>
+        <v>-2.489275932312012</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0250454749912023</v>
+        <v>2.557387351989746</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.3065016269683838</v>
+        <v>0.7553348541259766</v>
       </c>
       <c r="B13" t="n">
-        <v>1.078024387359619</v>
+        <v>-0.4101960062980652</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3802636265754699</v>
+        <v>0.0250454749912023</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.4914411008358001</v>
+        <v>-0.3065016269683838</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9477574229240416</v>
+        <v>1.078024387359619</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.8666650652885437</v>
+        <v>-0.3802636265754699</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-2.012648344039917</v>
+        <v>-0.4914411008358001</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2553416788578033</v>
+        <v>0.9477574229240416</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6989825367927551</v>
+        <v>-0.8666650652885437</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.6099489331245422</v>
+        <v>-2.012648344039917</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1099557429552078</v>
+        <v>-0.2553416788578033</v>
       </c>
       <c r="C16" t="n">
-        <v>1.45645546913147</v>
+        <v>0.6989825367927551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.4775438904762268</v>
+        <v>-0.6099489331245422</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0181732401251792</v>
+        <v>0.1099557429552078</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7333437204360962</v>
+        <v>1.45645546913147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.157145082950592</v>
+        <v>-0.4775438904762268</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.3301726579666137</v>
+        <v>0.0181732401251792</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2449569702148437</v>
+        <v>0.7333437204360962</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2209804952144622</v>
+        <v>0.157145082950592</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2324342280626297</v>
+        <v>-0.3301726579666137</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.090408056974411</v>
+        <v>-0.2449569702148437</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1496619880199432</v>
+        <v>0.2209804952144622</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0774271711707115</v>
+        <v>-0.2324342280626297</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1209513172507286</v>
+        <v>-0.090408056974411</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1823432743549347</v>
+        <v>0.1496619880199432</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1472185254096985</v>
+        <v>-0.0774271711707115</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3480404615402221</v>
+        <v>0.1209513172507286</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-51/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-51/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1186605766415596</v>
+        <v>0.08857546001672741</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.207236036658287</v>
+        <v>-0.0678060427308082</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.081550508737564</v>
+        <v>-0.0534507073462009</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.2335032373666763</v>
+        <v>0.0888808965682983</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1345430761575698</v>
+        <v>0.1319468915462494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1078177168965339</v>
+        <v>-0.0287106670439243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2064724564552307</v>
+        <v>0.3381139039993286</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6855435371398926</v>
+        <v>0.00534507073462</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0025961773935705</v>
+        <v>0.1145372316241264</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.5294674634933472</v>
+        <v>-0.1186605766415596</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.286787629127502</v>
+        <v>-0.207236036658287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7295258045196533</v>
+        <v>-0.081550508737564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2220495194196701</v>
+        <v>-0.2335032373666763</v>
       </c>
       <c r="B6" t="n">
-        <v>1.673159956932068</v>
+        <v>-0.1345430761575698</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2864958047866821</v>
+        <v>0.1078177168965339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.537395119667053</v>
+        <v>0.2064724564552307</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1259909570217132</v>
+        <v>0.6855435371398926</v>
       </c>
       <c r="C7" t="n">
-        <v>1.005178809165955</v>
+        <v>-0.0025961773935705</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.060462117195129</v>
+        <v>-0.5294674634933472</v>
       </c>
       <c r="B8" t="n">
-        <v>2.47568416595459</v>
+        <v>-1.286787629127502</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4978551864624023</v>
+        <v>0.7295258045196533</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0458148941397666</v>
+        <v>-0.2220495194196701</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0255036242306232</v>
+        <v>1.673159956932068</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2715296149253845</v>
+        <v>-0.2864958047866821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.928959727287292</v>
+        <v>1.537395119667053</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.550820589065552</v>
+        <v>0.1259909570217132</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1204931661486625</v>
+        <v>1.005178809165955</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.414597511291504</v>
+        <v>1.060462117195129</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.663803577423096</v>
+        <v>2.47568416595459</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4114177525043487</v>
+        <v>-0.4978551864624023</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.17408299446106</v>
+        <v>0.0458148941397666</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.489275932312012</v>
+        <v>-0.0255036242306232</v>
       </c>
       <c r="C12" t="n">
-        <v>2.557387351989746</v>
+        <v>0.2715296149253845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7553348541259766</v>
+        <v>1.928959727287292</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.4101960062980652</v>
+        <v>-2.550820589065552</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0250454749912023</v>
+        <v>0.1204931661486625</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.3065016269683838</v>
+        <v>-2.414597511291504</v>
       </c>
       <c r="B14" t="n">
-        <v>1.078024387359619</v>
+        <v>-4.663803577423096</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3802636265754699</v>
+        <v>-0.4114177525043487</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.4914411008358001</v>
+        <v>-1.17408299446106</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9477574229240416</v>
+        <v>-2.489275932312012</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.8666650652885437</v>
+        <v>2.557387351989746</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.012648344039917</v>
+        <v>0.7553348541259766</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2553416788578033</v>
+        <v>-0.4101960062980652</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6989825367927551</v>
+        <v>0.0250454749912023</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.6099489331245422</v>
+        <v>-0.3065016269683838</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1099557429552078</v>
+        <v>1.078024387359619</v>
       </c>
       <c r="C17" t="n">
-        <v>1.45645546913147</v>
+        <v>-0.3802636265754699</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.4775438904762268</v>
+        <v>-0.4914411008358001</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0181732401251792</v>
+        <v>0.9477574229240416</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7333437204360962</v>
+        <v>-0.8666650652885437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.157145082950592</v>
+        <v>-2.012648344039917</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.3301726579666137</v>
+        <v>-0.2553416788578033</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2449569702148437</v>
+        <v>0.6989825367927551</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2209804952144622</v>
+        <v>-0.6099489331245422</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2324342280626297</v>
+        <v>0.1099557429552078</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.090408056974411</v>
+        <v>1.45645546913147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.4775438904762268</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0181732401251792</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7333437204360962</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.157145082950592</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.3301726579666137</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.2449569702148437</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.2209804952144622</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2324342280626297</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.090408056974411</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>0.1496619880199432</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>-0.0774271711707115</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>0.1209513172507286</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.1823432743549347</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1472185254096985</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.3480404615402221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.5630650520324707</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6291912198066711</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.8999572396278381</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.0210748501121997</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.0826195254921913</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.0035124751739203</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0372627787292003</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0313068442046642</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.06322455406188961</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0158824957907199</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0445931628346443</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0317649915814399</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0148134818300604</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0259617734700441</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0120645882561802</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0215329993516206</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0319177098572254</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.009315694682300001</v>
       </c>
     </row>
   </sheetData>
